--- a/biology/Zoologie/Aptostichus/Aptostichus.xlsx
+++ b/biology/Zoologie/Aptostichus/Aptostichus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aptostichus est un genre d'araignées mygalomorphes de la famille des Euctenizidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aptostichus est un genre d'araignées mygalomorphes de la famille des Euctenizidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, au Nevada et en Arizona et au Mexique en Basse-Californie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis en Californie, au Nevada et en Arizona et au Mexique en Basse-Californie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 26/05/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 26/05/2024) :
 Aptostichus aguacaliente Bond, 2012
 Aptostichus angelinajolieae Bond, 2008
 Aptostichus anzaborrego Bond, 2012
@@ -612,10 +628,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1891 dans les Aviculariidae. Il est placé dans les Cyrtaucheniidae par Raven en 1985[3] puis dans les Euctenizidae par Bond et Hedin en 2012[4].
-Actinoxia[5] et Nemesoides[6] ont été placés en synonymie par Bond et Opell en 2002[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1891 dans les Aviculariidae. Il est placé dans les Cyrtaucheniidae par Raven en 1985 puis dans les Euctenizidae par Bond et Hedin en 2012.
+Actinoxia et Nemesoides ont été placés en synonymie par Bond et Opell en 2002.
 </t>
         </is>
       </c>
@@ -644,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1891 : « Liste des espèces de la famille des Aviculariidae qui habitent le Mexique et l'Amérique du Nord. » Actes de la Société Linnéenne de Bordeaux, vol. 44, p. 307-326.</t>
         </is>
